--- a/LeapLog/bin/Debug/netcoreapp3.1/tableTwo.xlsx
+++ b/LeapLog/bin/Debug/netcoreapp3.1/tableTwo.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/139cebc20cf1c155/01LoneStar/2020Spring/INEW2332Project/NewGithubClone/leaplog/LeapLog/bin/Debug/netcoreapp3.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/139cebc20cf1c155/01LoneStar/2020Spring/INEW2332Project/NewGit/leaplog/LeapLog/bin/Debug/netcoreapp3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9D39CE-1E5F-46D7-B290-A26126CC3D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADB7821-9DDE-4626-8518-C859F249F458}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4410" windowWidth="21600" windowHeight="12735" xr2:uid="{7844A387-349B-4AB7-A0AF-224DA3012F49}"/>
+    <workbookView xWindow="2280" yWindow="2565" windowWidth="21600" windowHeight="12735" xr2:uid="{B8C23B17-501D-41EF-AE2F-5D6E9BD50F66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Statement of Owner Equity" sheetId="5" r:id="rId1"/>
+    <sheet name="Income Statement" sheetId="4" r:id="rId2"/>
+    <sheet name="Balance Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="T Accounts" sheetId="2" r:id="rId4"/>
+    <sheet name="Journal" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +59,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>FILL IN</t>
   </si>
   <si>
     <t>we</t>
@@ -106,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,17 +141,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -460,10 +481,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D20C5-6D13-4590-BF48-A81CF74B48F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22332AE3-78B2-48B6-8D05-C791993B5825}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3D19BD-6381-4AFC-9170-79B553B3B960}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A6F90B-8D8D-4158-BAD0-22FFE6C1D44A}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4615BE-ACC5-48BD-AD81-DCD506C45079}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37D4D5F-6ED0-4741-B69F-DE791522BD1B}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,19 +644,19 @@
         <v>43937</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>23</v>
@@ -537,19 +670,19 @@
         <v>43937</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <v>34</v>
